--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\X\Developer\imca-raydeeoh\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DFD0D-2691-40E4-89D0-C067E3FC301D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1DC9B-FBBB-8E48-B8BD-BA4365628098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="0" windowWidth="21820" windowHeight="15780" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Mc.pale</t>
   </si>
   <si>
-    <t>DIRTY STINKY SMELLY</t>
-  </si>
-  <si>
     <t>Within a matter of seconds, my pitch shifted voice flangs into what feels like 'Search History' you thought you had cleared, we descend into the seductive, the surreal, the "DIRTY STINKY SMELLY". It is a variety show lathered with provocations – cleaning up all that nasty noise by dumping its proverbial garbage basket all over your desk and lighting it on fire. Think reality television play-by-plays shows, 5 gum, DIY night-core, sexy whistling, clock-ticking, clown costumes... It is a show that places horrible content right beneath our noses in the form of experimental sound, "trash" pop-culture indulgence and live prop-comedy performance.</t>
   </si>
   <si>
@@ -256,6 +253,12 @@
   </si>
   <si>
     <t>SPINCYCLES [replay]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWUPPY PWINCESS </t>
+  </si>
+  <si>
+    <t>DIRTY STINKY SMELLY (…)</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -336,11 +339,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -349,6 +352,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,18 +673,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -712,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -729,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -746,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -763,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -780,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -797,12 +803,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -814,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -831,10 +837,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -851,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -868,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -885,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -902,66 +908,66 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>36</v>
@@ -970,10 +976,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -990,29 +996,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1024,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1041,63 +1047,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -1109,15 +1115,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1129,15 +1135,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>36</v>
@@ -1146,12 +1152,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1163,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1180,12 +1186,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>44</v>
@@ -1197,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1214,12 +1220,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>41</v>
@@ -1231,12 +1237,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -1248,28 +1254,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1320,75 +1326,75 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
     </row>
   </sheetData>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1DC9B-FBBB-8E48-B8BD-BA4365628098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B02BB65-03D2-7540-8D01-5C4D4049C186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>Day</t>
   </si>
@@ -87,42 +87,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Boioioing!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ale(OS) </t>
-  </si>
-  <si>
-    <t>Boioioing! is a live performance of playful, experimental dance music.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodeo Haus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cowfolk Cycling Club </t>
-  </si>
-  <si>
     <t>Randomized Sound Pieces</t>
   </si>
   <si>
-    <t xml:space="preserve">Girl Pope University </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Felix </t>
-  </si>
-  <si>
     <t xml:space="preserve">A weekly exploration of various topics, themes taken from the news, advertisement, pop culture, student gossip, politics and many more areas not yet mentioned. This show will likely last roughly an hour per episode and the contents will vary from interviews to conversations, random field recordings, music, silence, etc. </t>
   </si>
   <si>
     <t xml:space="preserve">On this monthly radio show, you will hear Océane Buxton train herself at Girl Pope University by experimenting with playful, celestial and godly soundscapes. </t>
   </si>
   <si>
-    <t xml:space="preserve">Casual Fridays </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A laid-back show which consists of live, hardware experimentations/performances in electronic music, featuring guests. The audience listens and joins us as we create new sound pieces out of the blue, with no prepared material. The outcome of the sound piece may or may not be enjoyable, but it's more about the process of discovery and having fun. </t>
-  </si>
-  <si>
     <t>Océane Buxton</t>
   </si>
   <si>
@@ -132,133 +105,112 @@
     <t>SAGE aka victor</t>
   </si>
   <si>
-    <t xml:space="preserve">
-M.A.S</t>
-  </si>
-  <si>
-    <t>~~@~~Welcome~to~the~land~of~Tumble~Weed~~@~~
-From the wild west, we come ridin' in on our valiant steeds! Hawyee! 
-Biking was a way for us to reclaim our agency by travelling distances, reconnecting with our bodies and offering us a space of meditative contemplation. It is a radical anti-capitalist form of self-care.
-We wish to map out, democratize and bring together the different local communities that encourage auto-didactic lifestyles in the hopes of introducing an alternative ecosystem inclusive to all. 
-We have noticed the lack of community within Concordia and student life. In discussing the absurdity of living in a late-stage capitalist heterocisnormative society facing environmental calamity, we want to start a conversation, encouraging people to start caring about each other and about themselves. 
-This is your invitation to our mental cycling workout! Yeehaw!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mildly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture,          </t>
-  </si>
-  <si>
     <t>~~~</t>
   </si>
   <si>
     <t>You Look Fine</t>
   </si>
   <si>
-    <t xml:space="preserve">????? Surprise filler ????? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ????? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Using the structure of a talk-show/podcast, we would like to welcome different artists from across campus to share their experiences of being a creator living with chronic illness and or invisible disability. We are interested in how their illness(es) has influenced their practice and how they face the struggles they experience due to their illness(es) in and out of their practice. One part of the show would be a segment speaking about the illness(es) of the guest artist in order to raise awareness and offer helpful resources for those who might also be struggling with the same illness(es). Another segment would include an artist spotlight, giving each artist the opportunity to share one of their own art pieces/performances/creations. The overall goal of the show would be to raise visibility for the chronically ill &amp; invisibly disabled community on campus and hopefully create a community of artists who can collaborate and support one another. </t>
   </si>
   <si>
-    <t xml:space="preserve">Lunam Theatre Company </t>
-  </si>
-  <si>
     <t>F*k*ng_De$troYed_4ever</t>
   </si>
   <si>
-    <t>Two extra-terrestrial humanoïd-cyborgs are listening to their local Top 40 Hits radio in their flying dark matter plasma bubble; this is what they hear.  Punching DVDs, dropping a VHS from the top of, drilling a hole in a USB key. Slowly inserting a needle in one's ear. Continuous sounds evolving for an hour. xD hihi you're not ready for this</t>
-  </si>
-  <si>
     <t>Mc.pale</t>
   </si>
   <si>
     <t>Within a matter of seconds, my pitch shifted voice flangs into what feels like 'Search History' you thought you had cleared, we descend into the seductive, the surreal, the "DIRTY STINKY SMELLY". It is a variety show lathered with provocations – cleaning up all that nasty noise by dumping its proverbial garbage basket all over your desk and lighting it on fire. Think reality television play-by-plays shows, 5 gum, DIY night-core, sexy whistling, clock-ticking, clown costumes... It is a show that places horrible content right beneath our noses in the form of experimental sound, "trash" pop-culture indulgence and live prop-comedy performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Marissa Sean Cruz </t>
-  </si>
-  <si>
-    <t>3motion</t>
-  </si>
-  <si>
-    <t>3motion are recordings of live electronic jams between the artists. Each recording is improvised from beginning to end, and evolves through an intuitive, playful approach to sound making. </t>
-  </si>
-  <si>
-    <t>Digital Hell: The Free Market</t>
-  </si>
-  <si>
-    <t>Remote Access</t>
-  </si>
-  <si>
-    <t>SPINCYCLES</t>
-  </si>
-  <si>
     <t>Hakeem Lapointe</t>
   </si>
   <si>
-    <t>An interview-based radio show where the guests are invited to come wash their clothes at a laundromat of their choice. The format and length are based on the duration of the spin cycles of both washer and dryer, with a musical interlude in the middle during the transfer of clothes (music produced by the guest and with a non-commercial release form agreement). </t>
-  </si>
-  <si>
-    <t>Proposition76: postamateur</t>
-  </si>
-  <si>
-    <t>Proposition76: postamateur [replay]</t>
-  </si>
-  <si>
-    <t>EsoTalk</t>
-  </si>
-  <si>
     <t>iced t</t>
   </si>
   <si>
     <t xml:space="preserve">EsoTalk is a monthly radio show circling around esoteric topics. Each show has a different guest come on to talk about something they know really really well to the point that its questionable if its even useful to know that much, i mean why? </t>
   </si>
   <si>
-    <t>Boioioing! is a live performance of playful, experimental dance music. </t>
-  </si>
-  <si>
-    <t>Boioioing! [replay]</t>
-  </si>
-  <si>
-    <t>Rodeo Haus [replay]</t>
-  </si>
-  <si>
-    <t>Casual Fridays [replay]</t>
-  </si>
-  <si>
-    <t>Digital Hell: The Free Market [replay]</t>
-  </si>
-  <si>
-    <t>M.A.S [replay]</t>
-  </si>
-  <si>
-    <t>F*k*ng_De$troYed_4ever [replay]</t>
-  </si>
-  <si>
-    <t>You Look Fine [replay]</t>
-  </si>
-  <si>
-    <t>Girl Pope University [replay]</t>
-  </si>
-  <si>
-    <t>EsoTalk [replay]</t>
-  </si>
-  <si>
-    <t>3motion [replay]</t>
-  </si>
-  <si>
-    <t>DIRTY STINKY SMELLY [replay]</t>
-  </si>
-  <si>
-    <t>SPINCYCLES [replay]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWUPPY PWINCESS </t>
-  </si>
-  <si>
-    <t>DIRTY STINKY SMELLY (…)</t>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>ADHD-Fueled Scattered Interests: Plunderphonics and John Oswald</t>
+  </si>
+  <si>
+    <t>Postamateur</t>
+  </si>
+  <si>
+    <t>Louis Felix</t>
+  </si>
+  <si>
+    <t>Esotalk</t>
+  </si>
+  <si>
+    <t>?? Surprise filler ??</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>☆</t>
+  </si>
+  <si>
+    <t>"She's too loud"</t>
+  </si>
+  <si>
+    <t>Sara-Claudia Ligondé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boioioing! </t>
+  </si>
+  <si>
+    <t>Ale(OS)</t>
+  </si>
+  <si>
+    <t>Girl Pope University</t>
+  </si>
+  <si>
+    <t>M.A.S</t>
+  </si>
+  <si>
+    <t>M.A.S/?? Surprise filler ??</t>
+  </si>
+  <si>
+    <t>SAGE aka victor/??</t>
+  </si>
+  <si>
+    <t>/??</t>
+  </si>
+  <si>
+    <t>Lunam Theatre Company</t>
+  </si>
+  <si>
+    <t>DIRTY STINKY SMELLY […]</t>
+  </si>
+  <si>
+    <t>PWUPPY PWINCESS WITH SPECIAL GUEST DON'T TALK TO MY CLIENT EVER AGAIN</t>
+  </si>
+  <si>
+    <t>Casual Fridays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boioioing! is a live performance of playful, experimental dance music. </t>
+  </si>
+  <si>
+    <t>A laid-back show which consists of live, hardware experimentations/performances in electronic music, featuring guests. The audience listens and joins us as we create new sound pieces out of the blue, with no prepared material. The outcome of the sound piece may or may not be enjoyable, but it's more about the process of discovery and having fun.</t>
+  </si>
+  <si>
+    <t>Two extra-terrestrial humanoïd-cyborgs are listening to their local Top 40 Hits radio in their flying dark matter plasma bubble; this is what they hear.
+Punching DVDs, dropping a VHS from the top of, drilling a hole in a USB key.
+Slowly inserting a needle in one's ear. Continuous sounds evolving for an hour.
+xD hihi you're not ready for this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. </t>
+  </si>
+  <si>
+    <t>Live performance exploring time and space with a variety of synthesizers.</t>
   </si>
 </sst>
 </file>
@@ -268,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +270,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +316,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,14 +668,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -722,15 +679,10 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -739,15 +691,10 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -757,13 +704,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -774,30 +721,30 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -808,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -824,14 +771,14 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -844,14 +791,8 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -861,15 +802,10 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
@@ -878,15 +814,10 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
@@ -896,13 +827,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -913,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -930,13 +861,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -949,11 +880,11 @@
       <c r="B17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -963,14 +894,14 @@
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
@@ -983,14 +914,8 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -1000,15 +925,10 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,15 +937,10 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,13 +950,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -1052,30 +967,30 @@
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="106" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1086,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1102,14 +1017,14 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>61</v>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1122,14 +1037,8 @@
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1139,32 +1048,22 @@
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1174,13 +1073,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>11</v>
@@ -1191,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -1207,14 +1106,14 @@
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D34" t="s">
-        <v>38</v>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -1225,13 +1124,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -1241,14 +1140,14 @@
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -1262,14 +1161,8 @@
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>58</v>
+      <c r="B38" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -1279,15 +1172,10 @@
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
+      <c r="B39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1296,15 +1184,10 @@
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
+      <c r="B40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
@@ -1314,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>11</v>
@@ -1331,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
@@ -1347,15 +1230,13 @@
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>70</v>
+      <c r="B43" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D43" s="8"/>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
@@ -1364,14 +1245,14 @@
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>70</v>
+      <c r="B44" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
@@ -1382,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B02BB65-03D2-7540-8D01-5C4D4049C186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDFA4E9-128E-E041-A738-7106F1CA9667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="3340" windowWidth="25600" windowHeight="11200" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>Day</t>
   </si>
@@ -172,15 +172,6 @@
   </si>
   <si>
     <t>M.A.S</t>
-  </si>
-  <si>
-    <t>M.A.S/?? Surprise filler ??</t>
-  </si>
-  <si>
-    <t>SAGE aka victor/??</t>
-  </si>
-  <si>
-    <t>/??</t>
   </si>
   <si>
     <t>Lunam Theatre Company</t>
@@ -211,6 +202,30 @@
   </si>
   <si>
     <t>Live performance exploring time and space with a variety of synthesizers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presenting and explaining the work of John Oswald and Audio Piracy as a creative prerogative in an accessible way with audio. 20% talking 80% music : - ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAGE aka victor/Juice it Up! </t>
+  </si>
+  <si>
+    <t>Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. 
+/
+An interesting dichotomy of absurdist humor and experimental voices, we bet you will LOL a lot or be like "damn this shit is good!" 
+Brought to you by TIMFL Studios</t>
+  </si>
+  <si>
+    <t>M.A.S/TIMFL Studios</t>
+  </si>
+  <si>
+    <t>Though MANIC is a solo endeavour, this compilation features many collaborations; namely with Dave Ewenson, Solomon Vroman, Yaya Wagg, Jeremy Costello and Camella Lobo. Adverse to drawing influence through genre; these sonic explorations are as poetic in ethos as they are in content. Recorded 2010-2015.</t>
+  </si>
+  <si>
+    <t>MANIC</t>
+  </si>
+  <si>
+    <t>the ancient ruins of modernity</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +292,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,6 +355,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,7 +768,7 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -744,7 +785,7 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -850,7 +891,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -867,24 +908,24 @@
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -894,14 +935,14 @@
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>39</v>
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
@@ -970,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>26</v>
@@ -990,7 +1031,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1090,10 +1131,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>29</v>
@@ -1124,13 +1165,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -1236,7 +1277,9 @@
       <c r="C43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/github_sam/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDFA4E9-128E-E041-A738-7106F1CA9667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817F471-76AE-834A-B0EA-C4FD02F7459E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3340" windowWidth="25600" windowHeight="11200" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="3340" windowWidth="37520" windowHeight="19180" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
   <si>
     <t>Day</t>
   </si>
@@ -226,6 +220,15 @@
   </si>
   <si>
     <t>the ancient ruins of modernity</t>
+  </si>
+  <si>
+    <t>Solarise</t>
+  </si>
+  <si>
+    <t>Martin Peach</t>
+  </si>
+  <si>
+    <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/github_sam/imca-raydeeoh/scheduleSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817F471-76AE-834A-B0EA-C4FD02F7459E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47478145-9B59-F94A-A3BC-3C11F96096CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3340" windowWidth="37520" windowHeight="19180" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -139,9 +145,6 @@
   </si>
   <si>
     <t>Esotalk</t>
-  </si>
-  <si>
-    <t>?? Surprise filler ??</t>
   </si>
   <si>
     <t>??</t>
@@ -220,6 +223,18 @@
   </si>
   <si>
     <t>the ancient ruins of modernity</t>
+  </si>
+  <si>
+    <t>“Relaxing sounds!! Light a candle, crack a cold alpine, and put on a sheet mask”</t>
+  </si>
+  <si>
+    <t>East Coast Lifestyle</t>
+  </si>
+  <si>
+    <t>Casiotone Demo Song compilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilation including the sounds of Casio CA-100, CTK-450, CT-657, CT-700, EP-20, MT-240, PT-88, SK-5, SK-1, SA-1, SA-7, SA-75 and the VL-1. </t>
   </si>
   <si>
     <t>Solarise</t>
@@ -238,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +330,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,6 +385,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -782,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -799,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -816,13 +838,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -888,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -905,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -922,13 +944,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -939,13 +961,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
@@ -1014,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>26</v>
@@ -1034,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1045,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1062,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1134,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>29</v>
@@ -1151,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -1168,13 +1190,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -1185,13 +1207,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -1281,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
@@ -1309,13 +1331,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
@@ -1323,6 +1345,9 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47478145-9B59-F94A-A3BC-3C11F96096CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE2C71-718F-5148-9D9C-5FD6D3F47335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Esotalk</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>☆</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
+  </si>
+  <si>
+    <t>Two 30-minute soundscapes by two babies from the Maritimes, trying to catch some relaxing vibes in the city</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -804,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -838,13 +838,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -927,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -944,13 +944,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -961,13 +961,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
@@ -1036,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>26</v>
@@ -1056,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1067,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1084,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1156,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>29</v>
@@ -1173,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -1190,13 +1190,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -1207,13 +1207,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -1303,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
@@ -1331,13 +1331,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="D45" s="8" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DE2C71-718F-5148-9D9C-5FD6D3F47335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A209D-85C1-D64B-949F-24DFEAE3E2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -108,9 +108,6 @@
     <t>~~~</t>
   </si>
   <si>
-    <t>You Look Fine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using the structure of a talk-show/podcast, we would like to welcome different artists from across campus to share their experiences of being a creator living with chronic illness and or invisible disability. We are interested in how their illness(es) has influenced their practice and how they face the struggles they experience due to their illness(es) in and out of their practice. One part of the show would be a segment speaking about the illness(es) of the guest artist in order to raise awareness and offer helpful resources for those who might also be struggling with the same illness(es). Another segment would include an artist spotlight, giving each artist the opportunity to share one of their own art pieces/performances/creations. The overall goal of the show would be to raise visibility for the chronically ill &amp; invisibly disabled community on campus and hopefully create a community of artists who can collaborate and support one another. </t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Within a matter of seconds, my pitch shifted voice flangs into what feels like 'Search History' you thought you had cleared, we descend into the seductive, the surreal, the "DIRTY STINKY SMELLY". It is a variety show lathered with provocations – cleaning up all that nasty noise by dumping its proverbial garbage basket all over your desk and lighting it on fire. Think reality television play-by-plays shows, 5 gum, DIY night-core, sexy whistling, clock-ticking, clown costumes... It is a show that places horrible content right beneath our noses in the form of experimental sound, "trash" pop-culture indulgence and live prop-comedy performance.</t>
   </si>
   <si>
-    <t>Hakeem Lapointe</t>
-  </si>
-  <si>
     <t>iced t</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>offline</t>
   </si>
   <si>
-    <t>ADHD-Fueled Scattered Interests: Plunderphonics and John Oswald</t>
-  </si>
-  <si>
     <t>Postamateur</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>Sara-Claudia Ligondé</t>
   </si>
   <si>
-    <t xml:space="preserve">Boioioing! </t>
-  </si>
-  <si>
     <t>Ale(OS)</t>
   </si>
   <si>
@@ -169,12 +157,6 @@
   </si>
   <si>
     <t>Lunam Theatre Company</t>
-  </si>
-  <si>
-    <t>DIRTY STINKY SMELLY […]</t>
-  </si>
-  <si>
-    <t>PWUPPY PWINCESS WITH SPECIAL GUEST DON'T TALK TO MY CLIENT EVER AGAIN</t>
   </si>
   <si>
     <t>Casual Fridays</t>
@@ -195,55 +177,71 @@
     <t xml:space="preserve">Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. </t>
   </si>
   <si>
-    <t>Live performance exploring time and space with a variety of synthesizers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Presenting and explaining the work of John Oswald and Audio Piracy as a creative prerogative in an accessible way with audio. 20% talking 80% music : - ) </t>
   </si>
   <si>
-    <t xml:space="preserve">SAGE aka victor/Juice it Up! </t>
-  </si>
-  <si>
-    <t>Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. 
-/
-An interesting dichotomy of absurdist humor and experimental voices, we bet you will LOL a lot or be like "damn this shit is good!" 
+    <t>Though MANIC is a solo endeavour, this compilation features many collaborations; namely with Dave Ewenson, Solomon Vroman, Yaya Wagg, Jeremy Costello and Camella Lobo. Adverse to drawing influence through genre; these sonic explorations are as poetic in ethos as they are in content. Recorded 2010-2015.</t>
+  </si>
+  <si>
+    <t>MANIC</t>
+  </si>
+  <si>
+    <t>the ancient ruins of modernity</t>
+  </si>
+  <si>
+    <t>East Coast Lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilation including the sounds of Casio CA-100, CTK-450, CT-657, CT-700, EP-20, MT-240, PT-88, SK-5, SK-1, SA-1, SA-7, SA-75 and the VL-1. </t>
+  </si>
+  <si>
+    <t>Solarise</t>
+  </si>
+  <si>
+    <t>Martin Peach</t>
+  </si>
+  <si>
+    <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
+  </si>
+  <si>
+    <t>ADHD-Fueled Scattered Interests</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
+    <t>An interesting dichotomy of absurdist humor and experimental voices, we bet you will LOL a lot or be like "damn this shit is good!" 
 Brought to you by TIMFL Studios</t>
   </si>
   <si>
-    <t>M.A.S/TIMFL Studios</t>
-  </si>
-  <si>
-    <t>Though MANIC is a solo endeavour, this compilation features many collaborations; namely with Dave Ewenson, Solomon Vroman, Yaya Wagg, Jeremy Costello and Camella Lobo. Adverse to drawing influence through genre; these sonic explorations are as poetic in ethos as they are in content. Recorded 2010-2015.</t>
-  </si>
-  <si>
-    <t>MANIC</t>
-  </si>
-  <si>
-    <t>the ancient ruins of modernity</t>
-  </si>
-  <si>
-    <t>“Relaxing sounds!! Light a candle, crack a cold alpine, and put on a sheet mask”</t>
-  </si>
-  <si>
-    <t>East Coast Lifestyle</t>
-  </si>
-  <si>
-    <t>Casiotone Demo Song compilation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compilation including the sounds of Casio CA-100, CTK-450, CT-657, CT-700, EP-20, MT-240, PT-88, SK-5, SK-1, SA-1, SA-7, SA-75 and the VL-1. </t>
-  </si>
-  <si>
-    <t>Solarise</t>
-  </si>
-  <si>
-    <t>Martin Peach</t>
-  </si>
-  <si>
-    <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
-  </si>
-  <si>
-    <t>Two 30-minute soundscapes by two babies from the Maritimes, trying to catch some relaxing vibes in the city</t>
+    <t xml:space="preserve">DIRTY STINKY SMELLY </t>
+  </si>
+  <si>
+    <t>PWUPPY PWINCESS</t>
+  </si>
+  <si>
+    <t>Casiotone demo song compilation</t>
+  </si>
+  <si>
+    <t>Juice it Up! // M.A.S</t>
+  </si>
+  <si>
+    <t>TIMFL Studios // SAGE aka victor</t>
+  </si>
+  <si>
+    <t>Boioioing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Look Fine </t>
+  </si>
+  <si>
+    <t>"Relaxing sounds!! Light a candle, crack a cold alpine, and put on a sheet mask"</t>
+  </si>
+  <si>
+    <t>Two 30-minute soundscapes by two babies from the Maritimes, trying to catch some relaxing vibes in the city.</t>
+  </si>
+  <si>
+    <t>A live performance exploring time and space with a variety of synthesizers.</t>
   </si>
 </sst>
 </file>
@@ -357,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -386,6 +384,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -746,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
@@ -758,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
@@ -787,13 +788,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -804,13 +805,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -821,13 +822,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -838,13 +839,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -858,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -869,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
@@ -881,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -910,13 +911,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -927,30 +928,30 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="31" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -960,15 +961,9 @@
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
@@ -981,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -992,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
@@ -1004,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
@@ -1033,30 +1028,30 @@
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="106" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1067,13 +1062,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1083,14 +1078,14 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
+      <c r="B27" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1104,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1115,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="3" t="s">
@@ -1127,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3" t="s">
@@ -1156,13 +1151,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -1173,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -1190,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -1207,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -1228,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -1239,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
@@ -1251,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="3" t="s">
@@ -1279,48 +1274,48 @@
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>19</v>
+      <c r="B42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>54</v>
+      <c r="B43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="106" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
@@ -1331,12 +1326,12 @@
         <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -1348,6 +1343,51 @@
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="B48" s="19"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A209D-85C1-D64B-949F-24DFEAE3E2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288797D2-F0BB-7440-8C46-48DA107C3F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288797D2-F0BB-7440-8C46-48DA107C3F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DC1FC-A68D-1543-BA93-A1FA40E8DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>Day</t>
   </si>
@@ -93,15 +95,6 @@
     <t xml:space="preserve">A weekly exploration of various topics, themes taken from the news, advertisement, pop culture, student gossip, politics and many more areas not yet mentioned. This show will likely last roughly an hour per episode and the contents will vary from interviews to conversations, random field recordings, music, silence, etc. </t>
   </si>
   <si>
-    <t xml:space="preserve">On this monthly radio show, you will hear Océane Buxton train herself at Girl Pope University by experimenting with playful, celestial and godly soundscapes. </t>
-  </si>
-  <si>
-    <t>Océane Buxton</t>
-  </si>
-  <si>
-    <t>Liam Kenna</t>
-  </si>
-  <si>
     <t>SAGE aka victor</t>
   </si>
   <si>
@@ -129,9 +122,6 @@
     <t>offline</t>
   </si>
   <si>
-    <t>Postamateur</t>
-  </si>
-  <si>
     <t>Louis Felix</t>
   </si>
   <si>
@@ -150,98 +140,78 @@
     <t>Ale(OS)</t>
   </si>
   <si>
-    <t>Girl Pope University</t>
-  </si>
-  <si>
     <t>M.A.S</t>
   </si>
   <si>
-    <t>Lunam Theatre Company</t>
-  </si>
-  <si>
-    <t>Casual Fridays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boioioing! is a live performance of playful, experimental dance music. </t>
   </si>
   <si>
-    <t>A laid-back show which consists of live, hardware experimentations/performances in electronic music, featuring guests. The audience listens and joins us as we create new sound pieces out of the blue, with no prepared material. The outcome of the sound piece may or may not be enjoyable, but it's more about the process of discovery and having fun.</t>
-  </si>
-  <si>
-    <t>Two extra-terrestrial humanoïd-cyborgs are listening to their local Top 40 Hits radio in their flying dark matter plasma bubble; this is what they hear.
+    <t xml:space="preserve">Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. </t>
+  </si>
+  <si>
+    <t>Martin Peach</t>
+  </si>
+  <si>
+    <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
+  </si>
+  <si>
+    <t>ADHD-Fueled Scattered Interests</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
+    <t>An interesting dichotomy of absurdist humor and experimental voices, we bet you will LOL a lot or be like "damn this shit is good!" 
+Brought to you by TIMFL Studios</t>
+  </si>
+  <si>
+    <t>PWUPPY PWINCESS</t>
+  </si>
+  <si>
+    <t>Boioioing!</t>
+  </si>
+  <si>
+    <t>A live performance exploring time and space with a variety of synthesizers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covetousness
+</t>
+  </si>
+  <si>
+    <t>Dylan Crichton</t>
+  </si>
+  <si>
+    <t>You Look Fine</t>
+  </si>
+  <si>
+    <t>Lunam Thetre Company</t>
+  </si>
+  <si>
+    <t>Épisode 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solarise </t>
+  </si>
+  <si>
+    <t>Juice it Up!</t>
+  </si>
+  <si>
+    <t>TIMFL studios</t>
+  </si>
+  <si>
+    <t>This is our timelapse</t>
+  </si>
+  <si>
+    <t>DIRTY STINKY SMELLY</t>
+  </si>
+  <si>
+    <t>Two extra-terrestrial humanoïd-cyborgs are listening to their local Top 40 Hits radio in their flying dark matter plasma bubble; this is what they hear. 
 Punching DVDs, dropping a VHS from the top of, drilling a hole in a USB key.
 Slowly inserting a needle in one's ear. Continuous sounds evolving for an hour.
 xD hihi you're not ready for this</t>
   </si>
   <si>
-    <t xml:space="preserve">Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presenting and explaining the work of John Oswald and Audio Piracy as a creative prerogative in an accessible way with audio. 20% talking 80% music : - ) </t>
-  </si>
-  <si>
-    <t>Though MANIC is a solo endeavour, this compilation features many collaborations; namely with Dave Ewenson, Solomon Vroman, Yaya Wagg, Jeremy Costello and Camella Lobo. Adverse to drawing influence through genre; these sonic explorations are as poetic in ethos as they are in content. Recorded 2010-2015.</t>
-  </si>
-  <si>
-    <t>MANIC</t>
-  </si>
-  <si>
-    <t>the ancient ruins of modernity</t>
-  </si>
-  <si>
-    <t>East Coast Lifestyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compilation including the sounds of Casio CA-100, CTK-450, CT-657, CT-700, EP-20, MT-240, PT-88, SK-5, SK-1, SA-1, SA-7, SA-75 and the VL-1. </t>
-  </si>
-  <si>
-    <t>Solarise</t>
-  </si>
-  <si>
-    <t>Martin Peach</t>
-  </si>
-  <si>
-    <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
-  </si>
-  <si>
-    <t>ADHD-Fueled Scattered Interests</t>
-  </si>
-  <si>
-    <t>Hakeem</t>
-  </si>
-  <si>
-    <t>An interesting dichotomy of absurdist humor and experimental voices, we bet you will LOL a lot or be like "damn this shit is good!" 
-Brought to you by TIMFL Studios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRTY STINKY SMELLY </t>
-  </si>
-  <si>
-    <t>PWUPPY PWINCESS</t>
-  </si>
-  <si>
-    <t>Casiotone demo song compilation</t>
-  </si>
-  <si>
-    <t>Juice it Up! // M.A.S</t>
-  </si>
-  <si>
-    <t>TIMFL Studios // SAGE aka victor</t>
-  </si>
-  <si>
-    <t>Boioioing!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Look Fine </t>
-  </si>
-  <si>
-    <t>"Relaxing sounds!! Light a candle, crack a cold alpine, and put on a sheet mask"</t>
-  </si>
-  <si>
-    <t>Two 30-minute soundscapes by two babies from the Maritimes, trying to catch some relaxing vibes in the city.</t>
-  </si>
-  <si>
-    <t>A live performance exploring time and space with a variety of synthesizers.</t>
+    <t>b3tty.p</t>
   </si>
 </sst>
 </file>
@@ -251,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +304,11 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light (Headings)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -355,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,7 +359,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,18 +679,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,42 +707,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -774,122 +750,120 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="85">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -897,67 +871,67 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -968,168 +942,168 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="34">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>18</v>
+      <c r="B23" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="46">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>46</v>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1137,123 +1111,119 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="20">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="B37" s="10"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1261,132 +1231,132 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="106" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>45</v>
+      <c r="B44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>36</v>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="E46" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="19">
       <c r="B48" s="19"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4">
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4">
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4">
       <c r="D52" s="8"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4">
       <c r="D58" s="16"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4">
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4">
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4">
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4">
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4">
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4">
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4">
       <c r="D66" s="7"/>
     </row>
   </sheetData>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DC1FC-A68D-1543-BA93-A1FA40E8DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8035C9BB-EA00-E44F-BE2A-C20B81049307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>Day</t>
   </si>
@@ -212,6 +204,17 @@
   </si>
   <si>
     <t>b3tty.p</t>
+  </si>
+  <si>
+    <t>DYLAN JOSEPH CRICHTON 1978-2008 Beloved son, brother, and friend Dylan died peacefully in his sleep on June 10, 2008, 13 days before his 30th birthday. Dylan left in his wake many deeply affected and heartbroken family and friends, a large collection of lost cat posters and a wealth of unread thoughts, writings and music.
+Receiving his Bachelor of Fine Arts in 2002, Dylan only just prevented himself from taking legal action against what he called 'the system of accreditation'. Dylan's love of simple things cannot be adequately expressed in words, and memories of his particular distastes will always bring smiles to those who knew him well. He enjoyed playing piano, fundamentalist infomercials, gourmet cooking, tennis, the crepuscule, taking taxis, talking to strangers, white wine, summer rains, wearing his friends’ clothes, and girls. He disliked moths, other fluttering insects, girls, nitrates, and getting his picture taken.
+Dylan had a vast, of ten premonitory understanding of the world which he could make manifest in terrifying, satirical and beautiful ways. Though this sensibility sometimes clouded other aspects of life, he cared about the people close to him in a manner that transcended any concern for himself.</t>
+  </si>
+  <si>
+    <t>Now that the future is eminently expressive "but all the
+more obedient to simple sensory schemata", Betty P is finding
+immediate pleasure in a mediated present. Paradised, we’re all stuck
+here. And it’s getting hard to tell which fruit is the truth.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,6 +364,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -679,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -901,14 +907,14 @@
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -980,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34">
+    <row r="23" spans="1:5" ht="306">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -990,8 +996,8 @@
       <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>21</v>
+      <c r="D23" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -1035,14 +1041,14 @@
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1130,12 +1136,14 @@
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="61">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1153,9 @@
       <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8035C9BB-EA00-E44F-BE2A-C20B81049307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B137C79-C480-BE4B-A2C0-72B8F3E31BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>Day</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>TIMFL studios</t>
-  </si>
-  <si>
-    <t>This is our timelapse</t>
   </si>
   <si>
     <t>DIRTY STINKY SMELLY</t>
@@ -215,6 +212,12 @@
 more obedient to simple sensory schemata", Betty P is finding
 immediate pleasure in a mediated present. Paradised, we’re all stuck
 here. And it’s getting hard to tell which fruit is the truth.</t>
+  </si>
+  <si>
+    <t>Non-sequitur-esque show that leaps from topic to topic, format to format. The contents of the show are guaranteed to change at every iteration: documentary and historical audio reviews, experimental sound hour, pirate audiobook-style material, conceptual sound art, etc.</t>
+  </si>
+  <si>
+    <t>THIS IS OUR TIMELAPSE</t>
   </si>
 </sst>
 </file>
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -776,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -1137,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -1148,13 +1151,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -1165,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>43</v>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B137C79-C480-BE4B-A2C0-72B8F3E31BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F4C3D-B284-2940-B35D-DF67A60F6ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
   <si>
     <t>Day</t>
   </si>
@@ -105,19 +105,10 @@
     <t>Within a matter of seconds, my pitch shifted voice flangs into what feels like 'Search History' you thought you had cleared, we descend into the seductive, the surreal, the "DIRTY STINKY SMELLY". It is a variety show lathered with provocations – cleaning up all that nasty noise by dumping its proverbial garbage basket all over your desk and lighting it on fire. Think reality television play-by-plays shows, 5 gum, DIY night-core, sexy whistling, clock-ticking, clown costumes... It is a show that places horrible content right beneath our noses in the form of experimental sound, "trash" pop-culture indulgence and live prop-comedy performance.</t>
   </si>
   <si>
-    <t>iced t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EsoTalk is a monthly radio show circling around esoteric topics. Each show has a different guest come on to talk about something they know really really well to the point that its questionable if its even useful to know that much, i mean why? </t>
-  </si>
-  <si>
     <t>offline</t>
   </si>
   <si>
     <t>Louis Felix</t>
-  </si>
-  <si>
-    <t>Esotalk</t>
   </si>
   <si>
     <t>☆</t>
@@ -688,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -721,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -732,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
@@ -744,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
@@ -779,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -790,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -807,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
@@ -822,13 +813,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -842,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -853,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
@@ -865,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
@@ -894,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>19</v>
@@ -911,13 +902,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -928,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -959,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -970,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
@@ -982,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
@@ -994,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -1011,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -1028,13 +1019,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1045,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1062,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1082,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1093,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="3" t="s">
@@ -1105,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3" t="s">
@@ -1134,13 +1125,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -1151,13 +1142,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
@@ -1168,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
@@ -1185,13 +1176,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
@@ -1206,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -1217,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="3" t="s">
@@ -1229,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="3" t="s">
@@ -1258,13 +1249,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
@@ -1275,13 +1266,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
@@ -1292,13 +1283,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
@@ -1309,13 +1300,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F4C3D-B284-2940-B35D-DF67A60F6ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F033874-5DB2-C64E-ACBC-A6C4A7E881E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="400" yWindow="1040" windowWidth="25600" windowHeight="14160" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
   <si>
     <t>Day</t>
   </si>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">Solarise </t>
-  </si>
-  <si>
-    <t>Juice it Up!</t>
-  </si>
-  <si>
-    <t>TIMFL studios</t>
   </si>
   <si>
     <t>DIRTY STINKY SMELLY</t>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>THIS IS OUR TIMELAPSE</t>
+  </si>
+  <si>
+    <t>Juice it Up! // "She's too loud"</t>
+  </si>
+  <si>
+    <t>TIMFL studios // Sara-Claudia Ligondé</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,14 +288,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -327,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,7 +348,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -679,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -759,35 +750,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="85">
+    <row r="6" spans="1:5" ht="20">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5" ht="46">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
+      <c r="B7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -797,13 +788,15 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
@@ -884,31 +877,31 @@
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>47</v>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="85">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>29</v>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -918,14 +911,14 @@
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>29</v>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -935,9 +928,15 @@
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
@@ -990,59 +989,59 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>54</v>
+      <c r="D23" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="17">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>41</v>
+      <c r="B24" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="46">
+    <row r="25" spans="1:5" ht="17">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>39</v>
+      <c r="B25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="61">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1120,52 +1119,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="17">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>56</v>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="61">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>55</v>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>25</v>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -1248,31 +1247,31 @@
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>32</v>
+      <c r="B42" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>34</v>
+      <c r="B43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
@@ -1316,7 +1315,7 @@
       <c r="E46" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="19">
-      <c r="B48" s="19"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="7"/>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imcadepot2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F033874-5DB2-C64E-ACBC-A6C4A7E881E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1626CA-AB92-E043-AA9B-58E0896CBC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1040" windowWidth="25600" windowHeight="14160" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -84,131 +84,22 @@
     <t>Randomized Sound Pieces</t>
   </si>
   <si>
-    <t xml:space="preserve">A weekly exploration of various topics, themes taken from the news, advertisement, pop culture, student gossip, politics and many more areas not yet mentioned. This show will likely last roughly an hour per episode and the contents will vary from interviews to conversations, random field recordings, music, silence, etc. </t>
-  </si>
-  <si>
-    <t>SAGE aka victor</t>
-  </si>
-  <si>
     <t>~~~</t>
   </si>
   <si>
-    <t xml:space="preserve">Using the structure of a talk-show/podcast, we would like to welcome different artists from across campus to share their experiences of being a creator living with chronic illness and or invisible disability. We are interested in how their illness(es) has influenced their practice and how they face the struggles they experience due to their illness(es) in and out of their practice. One part of the show would be a segment speaking about the illness(es) of the guest artist in order to raise awareness and offer helpful resources for those who might also be struggling with the same illness(es). Another segment would include an artist spotlight, giving each artist the opportunity to share one of their own art pieces/performances/creations. The overall goal of the show would be to raise visibility for the chronically ill &amp; invisibly disabled community on campus and hopefully create a community of artists who can collaborate and support one another. </t>
-  </si>
-  <si>
-    <t>F*k*ng_De$troYed_4ever</t>
-  </si>
-  <si>
-    <t>Mc.pale</t>
-  </si>
-  <si>
-    <t>Within a matter of seconds, my pitch shifted voice flangs into what feels like 'Search History' you thought you had cleared, we descend into the seductive, the surreal, the "DIRTY STINKY SMELLY". It is a variety show lathered with provocations – cleaning up all that nasty noise by dumping its proverbial garbage basket all over your desk and lighting it on fire. Think reality television play-by-plays shows, 5 gum, DIY night-core, sexy whistling, clock-ticking, clown costumes... It is a show that places horrible content right beneath our noses in the form of experimental sound, "trash" pop-culture indulgence and live prop-comedy performance.</t>
-  </si>
-  <si>
     <t>offline</t>
   </si>
   <si>
-    <t>Louis Felix</t>
-  </si>
-  <si>
     <t>☆</t>
   </si>
   <si>
-    <t>"She's too loud"</t>
-  </si>
-  <si>
-    <t>Sara-Claudia Ligondé</t>
-  </si>
-  <si>
-    <t>Ale(OS)</t>
-  </si>
-  <si>
-    <t>M.A.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boioioing! is a live performance of playful, experimental dance music. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture, l’émission se veut humoristique et qui ose un peu des fois mais pas trop. </t>
-  </si>
-  <si>
-    <t>Martin Peach</t>
-  </si>
-  <si>
-    <t>This recording is made using a Pure Data patch that requests a file of solar wind measurements from the ACE satellite (http://www.srl.caltech.edu/ACE/) every two minutes. The North-South magnetic field intensity from the past two hours is played back over two minutes as notes in a 17-tone scale. The sound is Karplus-Strong string synthesis made to emulate a bowed instrument. The sound is then passed through a delay with feedback, whose length changes according to the magnetic field intensity.</t>
-  </si>
-  <si>
-    <t>ADHD-Fueled Scattered Interests</t>
-  </si>
-  <si>
-    <t>Hakeem</t>
-  </si>
-  <si>
-    <t>An interesting dichotomy of absurdist humor and experimental voices, we bet you will LOL a lot or be like "damn this shit is good!" 
-Brought to you by TIMFL Studios</t>
-  </si>
-  <si>
-    <t>PWUPPY PWINCESS</t>
-  </si>
-  <si>
-    <t>Boioioing!</t>
-  </si>
-  <si>
-    <t>A live performance exploring time and space with a variety of synthesizers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covetousness
-</t>
-  </si>
-  <si>
-    <t>Dylan Crichton</t>
-  </si>
-  <si>
-    <t>You Look Fine</t>
-  </si>
-  <si>
-    <t>Lunam Thetre Company</t>
-  </si>
-  <si>
-    <t>Épisode 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solarise </t>
-  </si>
-  <si>
-    <t>DIRTY STINKY SMELLY</t>
-  </si>
-  <si>
-    <t>Two extra-terrestrial humanoïd-cyborgs are listening to their local Top 40 Hits radio in their flying dark matter plasma bubble; this is what they hear. 
-Punching DVDs, dropping a VHS from the top of, drilling a hole in a USB key.
-Slowly inserting a needle in one's ear. Continuous sounds evolving for an hour.
-xD hihi you're not ready for this</t>
-  </si>
-  <si>
-    <t>b3tty.p</t>
-  </si>
-  <si>
-    <t>DYLAN JOSEPH CRICHTON 1978-2008 Beloved son, brother, and friend Dylan died peacefully in his sleep on June 10, 2008, 13 days before his 30th birthday. Dylan left in his wake many deeply affected and heartbroken family and friends, a large collection of lost cat posters and a wealth of unread thoughts, writings and music.
-Receiving his Bachelor of Fine Arts in 2002, Dylan only just prevented himself from taking legal action against what he called 'the system of accreditation'. Dylan's love of simple things cannot be adequately expressed in words, and memories of his particular distastes will always bring smiles to those who knew him well. He enjoyed playing piano, fundamentalist infomercials, gourmet cooking, tennis, the crepuscule, taking taxis, talking to strangers, white wine, summer rains, wearing his friends’ clothes, and girls. He disliked moths, other fluttering insects, girls, nitrates, and getting his picture taken.
-Dylan had a vast, of ten premonitory understanding of the world which he could make manifest in terrifying, satirical and beautiful ways. Though this sensibility sometimes clouded other aspects of life, he cared about the people close to him in a manner that transcended any concern for himself.</t>
-  </si>
-  <si>
-    <t>Now that the future is eminently expressive "but all the
-more obedient to simple sensory schemata", Betty P is finding
-immediate pleasure in a mediated present. Paradised, we’re all stuck
-here. And it’s getting hard to tell which fruit is the truth.</t>
-  </si>
-  <si>
-    <t>Non-sequitur-esque show that leaps from topic to topic, format to format. The contents of the show are guaranteed to change at every iteration: documentary and historical audio reviews, experimental sound hour, pirate audiobook-style material, conceptual sound art, etc.</t>
-  </si>
-  <si>
-    <t>THIS IS OUR TIMELAPSE</t>
-  </si>
-  <si>
-    <t>Juice it Up! // "She's too loud"</t>
-  </si>
-  <si>
-    <t>TIMFL studios // Sara-Claudia Ligondé</t>
+    <t>6:00 - 7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDROOM STREAM !!1! </t>
+  </si>
+  <si>
+    <t>;-)</t>
   </si>
 </sst>
 </file>
@@ -218,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,14 +145,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -287,17 +170,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light (Headings)"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,41 +191,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,669 +555,788 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="46">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>39</v>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>42</v>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="85">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>50</v>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="306">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>43</v>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="61">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>53</v>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>28</v>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>19</v>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>28</v>
+      <c r="B35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>28</v>
+      <c r="B36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="10"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>26</v>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>33</v>
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>54</v>
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>28</v>
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>28</v>
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="19">
-      <c r="B48" s="18"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="8"/>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="7"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scheduleSheet/schedule.xlsx
+++ b/scheduleSheet/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/Documents/GitHub/imca-raydeeoh/scheduleSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1626CA-AB92-E043-AA9B-58E0896CBC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4918BE-3F3B-C243-98A1-0104F26EF3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -91,15 +91,6 @@
   </si>
   <si>
     <t>☆</t>
-  </si>
-  <si>
-    <t>6:00 - 7:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEDROOM STREAM !!1! </t>
-  </si>
-  <si>
-    <t>;-)</t>
   </si>
 </sst>
 </file>
@@ -527,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>21</v>
@@ -1151,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>21</v>
@@ -1168,10 +1159,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>21</v>
@@ -1184,14 +1175,14 @@
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>21</v>
+      <c r="B42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>12</v>
@@ -1202,10 +1193,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>21</v>
@@ -1219,10 +1210,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>21</v>
@@ -1236,10 +1227,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>21</v>
@@ -1249,21 +1240,11 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
